--- a/assets/excel/Report Bezetting.xlsx
+++ b/assets/excel/Report Bezetting.xlsx
@@ -44,13 +44,13 @@
     <t>Ket.</t>
   </si>
   <si>
-    <t>Abdul Latief Baedhowi/Palembang/1982-06-08</t>
+    <t>Abdul Latief Baedhowi//</t>
   </si>
   <si>
     <t>2012.12.01.002</t>
   </si>
   <si>
-    <t>/</t>
+    <t>Pengatur/II/D</t>
   </si>
   <si>
     <t>Manager</t>
@@ -490,7 +490,7 @@
         <v>13</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>

--- a/assets/excel/Report Bezetting.xlsx
+++ b/assets/excel/Report Bezetting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>REPORT BEZETTING</t>
   </si>
@@ -29,9 +29,6 @@
     <t>NIP</t>
   </si>
   <si>
-    <t>Pangkat GOL/Ruang</t>
-  </si>
-  <si>
     <t>Jabatan</t>
   </si>
   <si>
@@ -50,52 +47,814 @@
     <t>2012.12.01.002</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Manager</t>
+    <t>Direktur Operasional</t>
   </si>
   <si>
     <t>SMA</t>
   </si>
   <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Ahmad Hanif//</t>
+  </si>
+  <si>
+    <t>2012.12.01.003</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Iwan Setiyawan//</t>
+  </si>
+  <si>
+    <t>2012.12.01.004</t>
+  </si>
+  <si>
+    <t>Tri Wardaningtyas//</t>
+  </si>
+  <si>
+    <t>2012.12.01.005</t>
+  </si>
+  <si>
     <t>Sudarsono//</t>
   </si>
   <si>
     <t>2012.12.01.006</t>
   </si>
   <si>
-    <t>Pembina/IV/B</t>
+    <t>Tri Bekti Rianto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.008</t>
+  </si>
+  <si>
+    <t>Samiran//</t>
+  </si>
+  <si>
+    <t>2012.12.01.009</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>Edy Rusmanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.010</t>
+  </si>
+  <si>
+    <t>SMK</t>
+  </si>
+  <si>
+    <t>Roni Slamet//</t>
+  </si>
+  <si>
+    <t>2012.12.01.011</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Ihsanuddin//</t>
+  </si>
+  <si>
+    <t>2012.12.01.012</t>
+  </si>
+  <si>
+    <t>Sukirman//</t>
+  </si>
+  <si>
+    <t>2012.12.01.013</t>
+  </si>
+  <si>
+    <t>Bambang Gunartok//</t>
+  </si>
+  <si>
+    <t>2012.12.01.014</t>
+  </si>
+  <si>
+    <t>Rudi Riswanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.015</t>
+  </si>
+  <si>
+    <t>Maryono//</t>
+  </si>
+  <si>
+    <t>2012.12.01.016</t>
+  </si>
+  <si>
+    <t>Muryanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.017</t>
+  </si>
+  <si>
+    <t>Heri Susanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.018</t>
+  </si>
+  <si>
+    <t>Bagus Widodo//</t>
+  </si>
+  <si>
+    <t>2012.12.01.019</t>
+  </si>
+  <si>
+    <t>Aristiyo Budi//</t>
+  </si>
+  <si>
+    <t>2012.12.01.021</t>
+  </si>
+  <si>
+    <t>Eni Watiningsih//</t>
+  </si>
+  <si>
+    <t>2012.12.01.022</t>
+  </si>
+  <si>
+    <t>Suharini//</t>
+  </si>
+  <si>
+    <t>2012.12.01.024</t>
+  </si>
+  <si>
+    <t>Sofani//</t>
+  </si>
+  <si>
+    <t>2012.12.01.025</t>
+  </si>
+  <si>
+    <t>Slamet Triyoga//</t>
+  </si>
+  <si>
+    <t>2012.12.01.029</t>
+  </si>
+  <si>
+    <t>Arise Siswanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.031</t>
+  </si>
+  <si>
+    <t>Heru Setiawan//</t>
+  </si>
+  <si>
+    <t>2012.12.02.032</t>
+  </si>
+  <si>
+    <t>Kanang Suhartanto//</t>
+  </si>
+  <si>
+    <t>2012.12.04.034</t>
+  </si>
+  <si>
+    <t>Agus Tugiyono//</t>
+  </si>
+  <si>
+    <t>2012.12.04.035</t>
+  </si>
+  <si>
+    <t>Agus Salim//</t>
+  </si>
+  <si>
+    <t>2012.12.04.036</t>
+  </si>
+  <si>
+    <t>Nur Muh Attabik//</t>
+  </si>
+  <si>
+    <t>2012.12.04.037</t>
+  </si>
+  <si>
+    <t>Ihsan Zulkarnain//</t>
+  </si>
+  <si>
+    <t>2012.12.04.038</t>
+  </si>
+  <si>
+    <t>Heru Susmanto//</t>
+  </si>
+  <si>
+    <t>2012.12.04.039</t>
+  </si>
+  <si>
+    <t>Suharyanto//</t>
+  </si>
+  <si>
+    <t>2012.12.05.041</t>
+  </si>
+  <si>
+    <t>Wisnu Ardi//</t>
+  </si>
+  <si>
+    <t>2012.12.05.042</t>
+  </si>
+  <si>
+    <t>Agung Frediyanto//</t>
+  </si>
+  <si>
+    <t>2012.12.05.043</t>
+  </si>
+  <si>
+    <t>Dedy Rahmad Bahtiyar//</t>
+  </si>
+  <si>
+    <t>2012.12.07.044</t>
+  </si>
+  <si>
+    <t>Andri Bayu Suryatno//</t>
+  </si>
+  <si>
+    <t>2012.12.07.045</t>
+  </si>
+  <si>
+    <t>Sulis Wahyu Hendratiningsih//</t>
+  </si>
+  <si>
+    <t>2012.12.09.046</t>
+  </si>
+  <si>
+    <t>Margantoro Suryo Atmojo//</t>
+  </si>
+  <si>
+    <t>2012.12.10.048</t>
+  </si>
+  <si>
+    <t>Sumarlan//</t>
+  </si>
+  <si>
+    <t>2012.12.10.049</t>
+  </si>
+  <si>
+    <t>Wahyu Yuniarto//</t>
+  </si>
+  <si>
+    <t>2012.12.11.050</t>
+  </si>
+  <si>
+    <t>Jumadi//</t>
+  </si>
+  <si>
+    <t>2012.12.11.051</t>
+  </si>
+  <si>
+    <t>Marsudi//</t>
+  </si>
+  <si>
+    <t>2012.12.11.052</t>
+  </si>
+  <si>
+    <t>Andika Barun//</t>
+  </si>
+  <si>
+    <t>2012.12.11.054</t>
+  </si>
+  <si>
+    <t>Ngatiman//</t>
+  </si>
+  <si>
+    <t>2012.13.02.058</t>
+  </si>
+  <si>
+    <t>Indra Wahyudi//</t>
+  </si>
+  <si>
+    <t>2012.13.02.059</t>
+  </si>
+  <si>
+    <t>M Indriyanto//</t>
+  </si>
+  <si>
+    <t>2012.13.03.061</t>
+  </si>
+  <si>
+    <t>Iwan Setiawan S Pt//</t>
+  </si>
+  <si>
+    <t>2012.13.07.064</t>
+  </si>
+  <si>
+    <t>Sinta Widayati//</t>
+  </si>
+  <si>
+    <t>2012.13.09.065</t>
+  </si>
+  <si>
+    <t>Intan Nurlita Anisa//</t>
+  </si>
+  <si>
+    <t>2012.13.09.066</t>
+  </si>
+  <si>
+    <t>Yudhi Dwi Arifianto//</t>
+  </si>
+  <si>
+    <t>2012.13.10.068</t>
+  </si>
+  <si>
+    <t>Maghfiroh//</t>
+  </si>
+  <si>
+    <t>2012.13.11.071</t>
+  </si>
+  <si>
+    <t>Bagus Wahyono//</t>
+  </si>
+  <si>
+    <t>2012.13.11.073</t>
+  </si>
+  <si>
+    <t>David Nois Perdana//</t>
+  </si>
+  <si>
+    <t>2012.13.11.074</t>
+  </si>
+  <si>
+    <t>Nasikhin//</t>
+  </si>
+  <si>
+    <t>2012.14.09.078</t>
+  </si>
+  <si>
+    <t>Ferri Kurniawan//</t>
+  </si>
+  <si>
+    <t>2012.14.09.079</t>
+  </si>
+  <si>
+    <t>Surojo//</t>
+  </si>
+  <si>
+    <t>2012.14.09.080</t>
+  </si>
+  <si>
+    <t>Sutarno//</t>
+  </si>
+  <si>
+    <t>2012.14.09.083</t>
+  </si>
+  <si>
+    <t>Nur Endah Setyawati//</t>
+  </si>
+  <si>
+    <t>2012.15.03.086</t>
+  </si>
+  <si>
+    <t>Isnan Arif Pambudi//</t>
+  </si>
+  <si>
+    <t>2012.15.05.087</t>
+  </si>
+  <si>
+    <t>Mustaqim//</t>
+  </si>
+  <si>
+    <t>2012.15.05.088</t>
+  </si>
+  <si>
+    <t>Miftah Mafazi//</t>
+  </si>
+  <si>
+    <t>2012.15.10.094</t>
+  </si>
+  <si>
+    <t>Harnoko//</t>
+  </si>
+  <si>
+    <t>2012.15.11.096</t>
+  </si>
+  <si>
+    <t>Nur Cholish//</t>
+  </si>
+  <si>
+    <t>2012.15.11.097</t>
+  </si>
+  <si>
+    <t>Gumawan Nurdhianto//</t>
+  </si>
+  <si>
+    <t>2012.15.12.099</t>
+  </si>
+  <si>
+    <t>Mirza Gunawan//</t>
+  </si>
+  <si>
+    <t>2012.15.12.100</t>
+  </si>
+  <si>
+    <t>Febri Pratama//</t>
+  </si>
+  <si>
+    <t>2012.15.12.101</t>
+  </si>
+  <si>
+    <t>Harlan Buyung Nurdhianto//</t>
+  </si>
+  <si>
+    <t>2012.15.12.103</t>
+  </si>
+  <si>
+    <t>Reza Ahimsa Hendrianno//</t>
+  </si>
+  <si>
+    <t>2012.15.12.106</t>
+  </si>
+  <si>
+    <t>Sarjono//</t>
+  </si>
+  <si>
+    <t>2012.16.01.107</t>
+  </si>
+  <si>
+    <t>Rubiyanto//</t>
+  </si>
+  <si>
+    <t>2012.16.01.108</t>
+  </si>
+  <si>
+    <t>Andika Beny Setyawan//</t>
+  </si>
+  <si>
+    <t>2012.16.03.112</t>
+  </si>
+  <si>
+    <t>Ariyanto//</t>
+  </si>
+  <si>
+    <t>2012.16.07.115</t>
+  </si>
+  <si>
+    <t>Muhammad Khoirul Anam//</t>
+  </si>
+  <si>
+    <t>2012.16.07.118</t>
+  </si>
+  <si>
+    <t>Anor Riza Rudianto//</t>
+  </si>
+  <si>
+    <t>2012.16.10.119</t>
+  </si>
+  <si>
+    <t>Gunawan//</t>
+  </si>
+  <si>
+    <t>2012.16.12.120</t>
+  </si>
+  <si>
+    <t>Maryadi//</t>
+  </si>
+  <si>
+    <t>2012.17.01.122</t>
+  </si>
+  <si>
+    <t>M Irfan Meyanto//</t>
+  </si>
+  <si>
+    <t>2012.17.01.123</t>
+  </si>
+  <si>
+    <t>Hasnan Habib Al Fajar//</t>
+  </si>
+  <si>
+    <t>2012.17.08.125</t>
+  </si>
+  <si>
+    <t>Haryanto//</t>
+  </si>
+  <si>
+    <t>2012.17.09.127</t>
+  </si>
+  <si>
+    <t>Karindra Gatya Arzenna//</t>
+  </si>
+  <si>
+    <t>2012.17.09.131</t>
+  </si>
+  <si>
+    <t>Juni Bantu Pamungkas//</t>
+  </si>
+  <si>
+    <t>2012.17.09.132</t>
+  </si>
+  <si>
+    <t>Ifan Dwi Sanusi//</t>
+  </si>
+  <si>
+    <t>2012.17.09.134</t>
+  </si>
+  <si>
+    <t>Gustam Barnafi//</t>
+  </si>
+  <si>
+    <t>2012.17.09.137</t>
+  </si>
+  <si>
+    <t>Tri Dal Dhikri//</t>
+  </si>
+  <si>
+    <t>2012.17.09.138</t>
+  </si>
+  <si>
+    <t>Muhammad Rafiq//</t>
+  </si>
+  <si>
+    <t>2012.17.11.142</t>
+  </si>
+  <si>
+    <t>Buyung Candra Bahari//</t>
+  </si>
+  <si>
+    <t>2012.17.11.143</t>
+  </si>
+  <si>
+    <t>Yusak Nugroho//</t>
+  </si>
+  <si>
+    <t>2012.17.11.144</t>
+  </si>
+  <si>
+    <t>Hanik Kastuni//</t>
+  </si>
+  <si>
+    <t>2012.18.02.145</t>
+  </si>
+  <si>
+    <t>Fenty Anindita Nurnafiah//</t>
+  </si>
+  <si>
+    <t>2012.18.02.146</t>
+  </si>
+  <si>
+    <t>Taufik Hidayat//</t>
+  </si>
+  <si>
+    <t>2012.18.05.148</t>
+  </si>
+  <si>
+    <t>Dwi Novi Casyanto//</t>
+  </si>
+  <si>
+    <t>2012.18.08.151</t>
+  </si>
+  <si>
+    <t>Khoirur Rokhimin//</t>
+  </si>
+  <si>
+    <t>2012.18.08.153</t>
+  </si>
+  <si>
+    <t>Muhammad Islakhuddin Rais //</t>
+  </si>
+  <si>
+    <t>2012.19.01.154</t>
+  </si>
+  <si>
+    <t>Buchori//</t>
+  </si>
+  <si>
+    <t>2012.19.01.156</t>
+  </si>
+  <si>
+    <t>Dita Yuliana//</t>
+  </si>
+  <si>
+    <t>2012.19.01.159</t>
+  </si>
+  <si>
+    <t>Ermalia Nur Hasyimi//</t>
+  </si>
+  <si>
+    <t>2012.19.01.160</t>
+  </si>
+  <si>
+    <t>Pardiman//</t>
+  </si>
+  <si>
+    <t>2012.20.01.161</t>
+  </si>
+  <si>
+    <t>Muhammad Misbakhudin//</t>
+  </si>
+  <si>
+    <t>2012.20.01.162</t>
+  </si>
+  <si>
+    <t>Doni Anggara Putra //</t>
+  </si>
+  <si>
+    <t>2012.20.01.163</t>
+  </si>
+  <si>
+    <t>Hermawan//</t>
+  </si>
+  <si>
+    <t>2012.20.02.000</t>
+  </si>
+  <si>
+    <t>YUSUF PURNAMA//</t>
+  </si>
+  <si>
+    <t>AKHMAD RIFAI//</t>
+  </si>
+  <si>
+    <t>BAGUS ISMAIL//</t>
+  </si>
+  <si>
+    <t>ABDUL ROCHMAN//</t>
+  </si>
+  <si>
+    <t>Jamiyati//</t>
+  </si>
+  <si>
+    <t>Febri Riyanti//</t>
+  </si>
+  <si>
+    <t>Rini Widyastuti//</t>
+  </si>
+  <si>
+    <t>Ery Safitri//</t>
+  </si>
+  <si>
+    <t>Dyah Ayu Pramesti//</t>
+  </si>
+  <si>
+    <t>Tri Mulatningsih//</t>
+  </si>
+  <si>
+    <t>Budi Lestari//</t>
+  </si>
+  <si>
+    <t>Emiyati//</t>
+  </si>
+  <si>
+    <t>Hanifah//</t>
+  </si>
+  <si>
+    <t>Eny Indriyati//</t>
+  </si>
+  <si>
+    <t>Devi Wulandari//</t>
+  </si>
+  <si>
+    <t>Zuniati Agnuril Sholikah//</t>
+  </si>
+  <si>
+    <t>Diah Ayu Novita Andari//</t>
+  </si>
+  <si>
+    <t>Putri Amalia Dewi//</t>
+  </si>
+  <si>
+    <t>Ninda Ayuni//</t>
+  </si>
+  <si>
+    <t>RIDWAN RAMADHAN//</t>
+  </si>
+  <si>
+    <t>arsyad//</t>
+  </si>
+  <si>
+    <t>meyd//</t>
+  </si>
+  <si>
+    <t>aldo//</t>
+  </si>
+  <si>
+    <t>fauzanj//</t>
+  </si>
+  <si>
+    <t>bone//</t>
+  </si>
+  <si>
+    <t>kesv//</t>
+  </si>
+  <si>
+    <t>donal//</t>
+  </si>
+  <si>
+    <t>kemi//</t>
+  </si>
+  <si>
+    <t>tata//</t>
+  </si>
+  <si>
+    <t>Rouf Rozikin//</t>
+  </si>
+  <si>
+    <t>GUNAWA//</t>
+  </si>
+  <si>
+    <t>EDO RIZKI P//</t>
+  </si>
+  <si>
+    <t>NOVRI ERWIN//</t>
+  </si>
+  <si>
+    <t>LELY TRI Y//</t>
+  </si>
+  <si>
+    <t>FATHONI HIDAYA//</t>
+  </si>
+  <si>
+    <t>MUKLIS SAPUTRA//</t>
+  </si>
+  <si>
+    <t>DANANG ANJAR H//</t>
+  </si>
+  <si>
+    <t>MUH FAIS ROSAD//</t>
+  </si>
+  <si>
+    <t>ADEN SABDA UTAM//</t>
+  </si>
+  <si>
+    <t>AHMAD AFIFUDIN//</t>
+  </si>
+  <si>
+    <t>AISYAH D S//</t>
+  </si>
+  <si>
+    <t>CITRA A N F//</t>
+  </si>
+  <si>
+    <t>CLARA F//</t>
+  </si>
+  <si>
+    <t>NAUFAL I//</t>
+  </si>
+  <si>
+    <t>NASMAL A//</t>
+  </si>
+  <si>
+    <t>Ihsan Firdaus//</t>
   </si>
   <si>
     <t>Administrasi Personalia</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>Ahmad Hanif//</t>
-  </si>
-  <si>
-    <t>2012.12.01.003</t>
-  </si>
-  <si>
-    <t>Kepala Dinas/III/D</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>Tri Wardaningtyas//</t>
-  </si>
-  <si>
-    <t>2012.12.01.005</t>
-  </si>
-  <si>
-    <t>Pembina/IV/A</t>
-  </si>
-  <si>
-    <t>Direktur Operasional</t>
+    <t>Arimbi Himsa L//</t>
+  </si>
+  <si>
+    <t>Luki Meiramah//</t>
+  </si>
+  <si>
+    <t>nabilla elma L//</t>
+  </si>
+  <si>
+    <t>Dai Yang Shidiq//</t>
+  </si>
+  <si>
+    <t>M Yanuar Nurez//</t>
+  </si>
+  <si>
+    <t>Eri Afriadi//</t>
+  </si>
+  <si>
+    <t>Jumawan//</t>
+  </si>
+  <si>
+    <t>M Ayrton Sena//</t>
+  </si>
+  <si>
+    <t>Sirullah Amand//</t>
+  </si>
+  <si>
+    <t>Nuryanto//</t>
+  </si>
+  <si>
+    <t>Fuad Muhammad H//</t>
+  </si>
+  <si>
+    <t>Nasis Firman//</t>
+  </si>
+  <si>
+    <t>Septian Dhaniar//</t>
+  </si>
+  <si>
+    <t>M  Hasan Nur//</t>
+  </si>
+  <si>
+    <t>Ariyanti Isnaii//</t>
+  </si>
+  <si>
+    <t>Lintang Fasha//</t>
+  </si>
+  <si>
+    <t>Fani Adiati//</t>
+  </si>
+  <si>
+    <t>Pradita Ferani//</t>
+  </si>
+  <si>
+    <t>Burhanu Sultan Ramadan/Darit/2001-08-09</t>
+  </si>
+  <si>
+    <t>ratnasari/Darit/2001-08-09</t>
   </si>
 </sst>
 </file>
@@ -431,7 +1190,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,12 +1198,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -466,190 +1225,3097 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
         <v>40</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D5"/>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="D8"/>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
         <v>25</v>
       </c>
+      <c r="D10"/>
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103">
+        <v>1000</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104">
+        <v>1001</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105">
+        <v>1002</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106">
+        <v>1003</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107">
+        <v>2000</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108">
+        <v>2001</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109">
+        <v>2002</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110">
+        <v>2003</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111">
+        <v>2004</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112">
+        <v>2005</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113">
+        <v>2006</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
+        <v>224</v>
+      </c>
+      <c r="C114">
+        <v>2007</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115">
+        <v>2008</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116">
+        <v>2009</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117">
+        <v>2010</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118">
+        <v>2011</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119">
+        <v>2012</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120" t="s">
+        <v>230</v>
+      </c>
+      <c r="C120">
+        <v>2013</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121">
+        <v>2014</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122">
+        <v>3000</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s">
+        <v>234</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125" t="s">
+        <v>235</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
+        <v>236</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129" t="s">
+        <v>239</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131" t="s">
+        <v>241</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132" t="s">
+        <v>242</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
+        <v>244</v>
+      </c>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
+        <v>245</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137" t="s">
+        <v>247</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138" t="s">
+        <v>248</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140" t="s">
+        <v>250</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142" t="s">
+        <v>252</v>
+      </c>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143" t="s">
+        <v>253</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146" t="s">
+        <v>256</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148" t="s">
+        <v>258</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148" t="s">
+        <v>259</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149" t="s">
+        <v>260</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150" t="s">
+        <v>261</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
+        <v>262</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152" t="s">
+        <v>263</v>
+      </c>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153" t="s">
+        <v>264</v>
+      </c>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154" t="s">
+        <v>265</v>
+      </c>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155" t="s">
+        <v>266</v>
+      </c>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156" t="s">
+        <v>267</v>
+      </c>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157" t="s">
+        <v>268</v>
+      </c>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158" t="s">
+        <v>269</v>
+      </c>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160" t="s">
+        <v>271</v>
+      </c>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161" t="s">
+        <v>272</v>
+      </c>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162" t="s">
+        <v>273</v>
+      </c>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163" t="s">
+        <v>274</v>
+      </c>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164" t="s">
+        <v>275</v>
+      </c>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165" t="s">
+        <v>275</v>
+      </c>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166" t="s">
+        <v>276</v>
+      </c>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167" t="s">
+        <v>277</v>
+      </c>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168" t="s">
+        <v>278</v>
+      </c>
+      <c r="C168">
+        <v>123</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168">
+        <v>20</v>
+      </c>
+      <c r="G168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169" t="s">
+        <v>279</v>
+      </c>
+      <c r="C169">
+        <v>1234</v>
+      </c>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169">
+        <v>20</v>
+      </c>
+      <c r="G169" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Report Bezetting.xlsx
+++ b/assets/excel/Report Bezetting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t>REPORT BEZETTING</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Ket.</t>
   </si>
   <si>
-    <t>Abdul Latief Baedhowi/Palembang/1982-06-08</t>
+    <t>Abdul Latief Baedhowi//</t>
   </si>
   <si>
     <t>2012.12.01.002</t>
@@ -71,6 +71,9 @@
     <t>2012.12.01.004</t>
   </si>
   <si>
+    <t>Direktur Utama</t>
+  </si>
+  <si>
     <t>Tri Wardaningtyas//</t>
   </si>
   <si>
@@ -849,12 +852,6 @@
   </si>
   <si>
     <t>Pradita Ferani//</t>
-  </si>
-  <si>
-    <t>Burhanu Sultan Ramadan/Darit/2001-08-09</t>
-  </si>
-  <si>
-    <t>ratnasari/Darit/2001-08-09</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1187,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1280,7 +1277,9 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
       <c r="E6"/>
       <c r="F6">
         <v>0</v>
@@ -1294,10 +1293,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
@@ -1315,10 +1314,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
@@ -1336,10 +1335,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1355,14 +1354,14 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1376,14 +1375,14 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1397,14 +1396,14 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1418,14 +1417,14 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1439,10 +1438,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1458,14 +1457,14 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1479,10 +1478,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
@@ -1500,10 +1499,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
@@ -1521,10 +1520,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
@@ -1542,10 +1541,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -1561,10 +1560,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -1580,10 +1579,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1599,10 +1598,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -1618,10 +1617,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1637,10 +1636,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -1656,10 +1655,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -1675,10 +1674,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1694,10 +1693,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -1713,10 +1712,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -1732,10 +1731,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -1751,10 +1750,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -1770,10 +1769,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -1789,10 +1788,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -1808,10 +1807,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -1827,10 +1826,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -1846,10 +1845,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -1865,10 +1864,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -1884,10 +1883,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -1903,10 +1902,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -1922,10 +1921,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1941,10 +1940,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -1960,10 +1959,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -1979,10 +1978,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -1998,10 +1997,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -2017,10 +2016,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -2036,10 +2035,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2055,10 +2054,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -2074,10 +2073,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2093,10 +2092,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -2112,10 +2111,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2131,10 +2130,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -2150,10 +2149,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -2169,10 +2168,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -2188,10 +2187,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2207,10 +2206,10 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -2226,10 +2225,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -2245,10 +2244,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
@@ -2264,10 +2263,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -2283,10 +2282,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -2302,10 +2301,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -2321,10 +2320,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
@@ -2340,10 +2339,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -2359,10 +2358,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
@@ -2378,10 +2377,10 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
@@ -2397,10 +2396,10 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
@@ -2416,10 +2415,10 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -2435,10 +2434,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -2454,10 +2453,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
@@ -2473,10 +2472,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -2492,10 +2491,10 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -2511,10 +2510,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -2530,10 +2529,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2549,10 +2548,10 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2568,10 +2567,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -2587,10 +2586,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -2606,10 +2605,10 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -2625,10 +2624,10 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -2644,10 +2643,10 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -2663,10 +2662,10 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -2682,10 +2681,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -2701,10 +2700,10 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
@@ -2720,10 +2719,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -2739,10 +2738,10 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -2758,10 +2757,10 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -2777,10 +2776,10 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
@@ -2796,10 +2795,10 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -2815,10 +2814,10 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
@@ -2834,10 +2833,10 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -2853,10 +2852,10 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
@@ -2872,10 +2871,10 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
@@ -2891,10 +2890,10 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -2910,10 +2909,10 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -2929,10 +2928,10 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
@@ -2948,10 +2947,10 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -2967,10 +2966,10 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -2986,10 +2985,10 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -3005,10 +3004,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
@@ -3024,10 +3023,10 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
@@ -3043,10 +3042,10 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
@@ -3062,10 +3061,10 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
@@ -3081,10 +3080,10 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
@@ -3100,10 +3099,10 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
@@ -3119,10 +3118,10 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
@@ -3138,7 +3137,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C103">
         <v>1000</v>
@@ -3157,7 +3156,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C104">
         <v>1001</v>
@@ -3176,7 +3175,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C105">
         <v>1002</v>
@@ -3195,7 +3194,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C106">
         <v>1003</v>
@@ -3214,7 +3213,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C107">
         <v>2000</v>
@@ -3233,7 +3232,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C108">
         <v>2001</v>
@@ -3252,7 +3251,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C109">
         <v>2002</v>
@@ -3271,7 +3270,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C110">
         <v>2003</v>
@@ -3290,7 +3289,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C111">
         <v>2004</v>
@@ -3309,7 +3308,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C112">
         <v>2005</v>
@@ -3328,7 +3327,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C113">
         <v>2006</v>
@@ -3347,7 +3346,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C114">
         <v>2007</v>
@@ -3366,7 +3365,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C115">
         <v>2008</v>
@@ -3385,7 +3384,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C116">
         <v>2009</v>
@@ -3404,7 +3403,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C117">
         <v>2010</v>
@@ -3423,7 +3422,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C118">
         <v>2011</v>
@@ -3442,7 +3441,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C119">
         <v>2012</v>
@@ -3461,7 +3460,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C120">
         <v>2013</v>
@@ -3480,7 +3479,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C121">
         <v>2014</v>
@@ -3499,7 +3498,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C122">
         <v>3000</v>
@@ -3518,7 +3517,7 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
@@ -3535,7 +3534,7 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
@@ -3552,7 +3551,7 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
@@ -3569,7 +3568,7 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
@@ -3586,7 +3585,7 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
@@ -3603,7 +3602,7 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
@@ -3620,7 +3619,7 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
@@ -3637,7 +3636,7 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
@@ -3654,7 +3653,7 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
@@ -3671,7 +3670,7 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -3688,7 +3687,7 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
@@ -3705,7 +3704,7 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
@@ -3722,7 +3721,7 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
@@ -3739,7 +3738,7 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
@@ -3756,7 +3755,7 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
@@ -3773,7 +3772,7 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
@@ -3790,7 +3789,7 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
@@ -3807,7 +3806,7 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
@@ -3824,7 +3823,7 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -3841,7 +3840,7 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
@@ -3858,7 +3857,7 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
@@ -3875,7 +3874,7 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
@@ -3892,7 +3891,7 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
@@ -3909,7 +3908,7 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
@@ -3926,7 +3925,7 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C147"/>
       <c r="D147"/>
@@ -3943,11 +3942,11 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C148"/>
       <c r="D148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E148"/>
       <c r="F148">
@@ -3962,7 +3961,7 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
@@ -3979,7 +3978,7 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
@@ -3996,7 +3995,7 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
@@ -4013,7 +4012,7 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
@@ -4030,7 +4029,7 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
@@ -4047,7 +4046,7 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
@@ -4064,7 +4063,7 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C155"/>
       <c r="D155"/>
@@ -4081,7 +4080,7 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
@@ -4098,7 +4097,7 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
@@ -4115,7 +4114,7 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
@@ -4132,7 +4131,7 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
@@ -4149,7 +4148,7 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
@@ -4166,7 +4165,7 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
@@ -4183,7 +4182,7 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
@@ -4200,7 +4199,7 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
@@ -4217,7 +4216,7 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
@@ -4234,7 +4233,7 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
@@ -4251,7 +4250,7 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
@@ -4268,7 +4267,7 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
@@ -4277,44 +4276,6 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168">
-        <v>165</v>
-      </c>
-      <c r="B168" t="s">
-        <v>278</v>
-      </c>
-      <c r="C168">
-        <v>123</v>
-      </c>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169">
-        <v>166</v>
-      </c>
-      <c r="B169" t="s">
-        <v>279</v>
-      </c>
-      <c r="C169">
-        <v>1234</v>
-      </c>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
         <v>12</v>
       </c>
     </row>

--- a/assets/excel/Report Bezetting.xlsx
+++ b/assets/excel/Report Bezetting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
   <si>
     <t>REPORT BEZETTING</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>2012.12.01.003</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
   <si>
     <t>S1</t>
@@ -1259,9 +1262,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1275,10 +1280,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -1294,14 +1299,14 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1315,14 +1320,14 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1336,10 +1341,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1355,14 +1360,14 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1376,14 +1381,14 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1397,14 +1402,14 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1418,14 +1423,14 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1439,10 +1444,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1458,14 +1463,14 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1479,14 +1484,14 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1500,14 +1505,14 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1521,10 +1526,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
@@ -1542,10 +1547,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -1561,10 +1566,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -1580,10 +1585,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1599,10 +1604,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -1618,10 +1623,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1637,10 +1642,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -1656,10 +1661,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -1675,10 +1680,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1694,10 +1699,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -1713,10 +1718,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -1732,10 +1737,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -1751,10 +1756,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -1770,10 +1775,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -1789,10 +1794,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -1808,10 +1813,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -1827,10 +1832,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -1846,10 +1851,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -1865,10 +1870,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -1884,10 +1889,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -1903,10 +1908,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -1922,10 +1927,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1941,10 +1946,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -1960,10 +1965,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -1979,10 +1984,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -1998,10 +2003,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -2017,10 +2022,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -2036,10 +2041,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2055,10 +2060,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -2074,10 +2079,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2093,10 +2098,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -2112,10 +2117,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2131,10 +2136,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -2150,10 +2155,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -2169,10 +2174,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -2188,10 +2193,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2207,10 +2212,10 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -2226,10 +2231,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -2245,10 +2250,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
@@ -2264,10 +2269,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -2283,10 +2288,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -2302,10 +2307,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -2321,10 +2326,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
@@ -2340,10 +2345,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -2359,10 +2364,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
@@ -2378,10 +2383,10 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
@@ -2397,10 +2402,10 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
@@ -2416,10 +2421,10 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -2435,10 +2440,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -2454,10 +2459,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
@@ -2473,10 +2478,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -2492,10 +2497,10 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -2511,10 +2516,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -2530,10 +2535,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2549,10 +2554,10 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2568,10 +2573,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -2587,10 +2592,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -2606,10 +2611,10 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -2625,10 +2630,10 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -2644,10 +2649,10 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -2663,10 +2668,10 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -2682,10 +2687,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -2701,10 +2706,10 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
@@ -2720,10 +2725,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -2739,10 +2744,10 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -2758,10 +2763,10 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -2777,10 +2782,10 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
@@ -2796,10 +2801,10 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -2815,10 +2820,10 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
@@ -2834,10 +2839,10 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -2853,10 +2858,10 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
@@ -2872,10 +2877,10 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
@@ -2891,10 +2896,10 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -2910,10 +2915,10 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -2929,10 +2934,10 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
@@ -2948,10 +2953,10 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -2967,10 +2972,10 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -2986,10 +2991,10 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -3005,10 +3010,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
@@ -3024,10 +3029,10 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
@@ -3043,10 +3048,10 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
@@ -3062,10 +3067,10 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
@@ -3081,10 +3086,10 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
@@ -3100,10 +3105,10 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
@@ -3119,10 +3124,10 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
@@ -3138,7 +3143,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C103">
         <v>1000</v>
@@ -3157,7 +3162,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C104">
         <v>1001</v>
@@ -3176,7 +3181,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C105">
         <v>1002</v>
@@ -3195,7 +3200,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C106">
         <v>1003</v>
@@ -3214,7 +3219,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C107">
         <v>2000</v>
@@ -3233,7 +3238,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C108">
         <v>2001</v>
@@ -3252,7 +3257,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C109">
         <v>2002</v>
@@ -3271,7 +3276,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C110">
         <v>2003</v>
@@ -3290,7 +3295,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C111">
         <v>2004</v>
@@ -3309,7 +3314,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C112">
         <v>2005</v>
@@ -3328,7 +3333,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C113">
         <v>2006</v>
@@ -3347,7 +3352,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C114">
         <v>2007</v>
@@ -3366,7 +3371,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C115">
         <v>2008</v>
@@ -3385,7 +3390,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C116">
         <v>2009</v>
@@ -3404,7 +3409,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C117">
         <v>2010</v>
@@ -3423,7 +3428,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C118">
         <v>2011</v>
@@ -3442,7 +3447,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C119">
         <v>2012</v>
@@ -3461,7 +3466,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C120">
         <v>2013</v>
@@ -3480,7 +3485,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C121">
         <v>2014</v>
@@ -3499,7 +3504,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C122">
         <v>3000</v>
@@ -3518,7 +3523,7 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
@@ -3535,7 +3540,7 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
@@ -3552,7 +3557,7 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
@@ -3569,7 +3574,7 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
@@ -3586,7 +3591,7 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
@@ -3603,7 +3608,7 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
@@ -3620,7 +3625,7 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
@@ -3637,7 +3642,7 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
@@ -3654,7 +3659,7 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
@@ -3671,7 +3676,7 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -3688,7 +3693,7 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
@@ -3705,7 +3710,7 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
@@ -3722,7 +3727,7 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
@@ -3739,7 +3744,7 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
@@ -3756,7 +3761,7 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
@@ -3773,7 +3778,7 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
@@ -3790,7 +3795,7 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
@@ -3807,7 +3812,7 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
@@ -3824,7 +3829,7 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -3841,7 +3846,7 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
@@ -3858,7 +3863,7 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
@@ -3875,7 +3880,7 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
@@ -3892,7 +3897,7 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
@@ -3909,7 +3914,7 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
@@ -3926,7 +3931,7 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C147"/>
       <c r="D147"/>
@@ -3943,11 +3948,11 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C148"/>
       <c r="D148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E148"/>
       <c r="F148">
@@ -3962,7 +3967,7 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
@@ -3979,7 +3984,7 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
@@ -3996,7 +4001,7 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
@@ -4013,7 +4018,7 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
@@ -4030,7 +4035,7 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
@@ -4047,7 +4052,7 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
@@ -4064,7 +4069,7 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C155"/>
       <c r="D155"/>
@@ -4081,7 +4086,7 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
@@ -4098,7 +4103,7 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
@@ -4115,7 +4120,7 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
@@ -4132,7 +4137,7 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
@@ -4149,7 +4154,7 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
@@ -4166,7 +4171,7 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
@@ -4183,7 +4188,7 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
@@ -4200,7 +4205,7 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
@@ -4217,7 +4222,7 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
@@ -4234,7 +4239,7 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
@@ -4251,7 +4256,7 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
@@ -4268,7 +4273,7 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
@@ -4285,7 +4290,7 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C168">
         <v>123</v>
@@ -4304,7 +4309,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C169">
         <v>1234</v>

--- a/assets/excel/Report Bezetting.xlsx
+++ b/assets/excel/Report Bezetting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
   <si>
     <t>REPORT BEZETTING</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Ket.</t>
   </si>
   <si>
-    <t>Abdul Latief Baedhowi/Palembang/1982-06-08</t>
+    <t>Abdul Latief Baedhowi//</t>
   </si>
   <si>
     <t>2012.12.01.002</t>
@@ -50,111 +50,111 @@
     <t>Direktur Operasional</t>
   </si>
   <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Ahmad Hanif//</t>
+  </si>
+  <si>
+    <t>2012.12.01.003</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Iwan Setiyawan/Bantul/2022-06-06</t>
+  </si>
+  <si>
+    <t>2012.12.01.004</t>
+  </si>
+  <si>
+    <t>Tri Wardaningtyas//</t>
+  </si>
+  <si>
+    <t>2012.12.01.005</t>
+  </si>
+  <si>
+    <t>Sudarsono//</t>
+  </si>
+  <si>
+    <t>2012.12.01.006</t>
+  </si>
+  <si>
+    <t>Tri Bekti Rianto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.008</t>
+  </si>
+  <si>
+    <t>Samiran//</t>
+  </si>
+  <si>
+    <t>2012.12.01.009</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>Edy Rusmanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.010</t>
+  </si>
+  <si>
+    <t>SMK</t>
+  </si>
+  <si>
+    <t>Roni Slamet//</t>
+  </si>
+  <si>
+    <t>2012.12.01.011</t>
+  </si>
+  <si>
+    <t>DIII</t>
+  </si>
+  <si>
+    <t>Ihsanuddin//</t>
+  </si>
+  <si>
+    <t>2012.12.01.012</t>
+  </si>
+  <si>
+    <t>Sukirman//</t>
+  </si>
+  <si>
+    <t>2012.12.01.013</t>
+  </si>
+  <si>
+    <t>Bambang Gunartok//</t>
+  </si>
+  <si>
+    <t>2012.12.01.014</t>
+  </si>
+  <si>
+    <t>Rudi Riswanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.015</t>
+  </si>
+  <si>
+    <t>Maryono//</t>
+  </si>
+  <si>
+    <t>2012.12.01.016</t>
+  </si>
+  <si>
+    <t>Muryanto//</t>
+  </si>
+  <si>
+    <t>2012.12.01.017</t>
+  </si>
+  <si>
     <t>SMA</t>
   </si>
   <si>
-    <t>Aktif</t>
-  </si>
-  <si>
-    <t>Ahmad Hanif//</t>
-  </si>
-  <si>
-    <t>2012.12.01.003</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>Iwan Setiyawan//</t>
-  </si>
-  <si>
-    <t>2012.12.01.004</t>
-  </si>
-  <si>
-    <t>Tri Wardaningtyas//</t>
-  </si>
-  <si>
-    <t>2012.12.01.005</t>
-  </si>
-  <si>
-    <t>Sudarsono//</t>
-  </si>
-  <si>
-    <t>2012.12.01.006</t>
-  </si>
-  <si>
-    <t>Tri Bekti Rianto//</t>
-  </si>
-  <si>
-    <t>2012.12.01.008</t>
-  </si>
-  <si>
-    <t>Samiran//</t>
-  </si>
-  <si>
-    <t>2012.12.01.009</t>
-  </si>
-  <si>
-    <t>SMP</t>
-  </si>
-  <si>
-    <t>Edy Rusmanto//</t>
-  </si>
-  <si>
-    <t>2012.12.01.010</t>
-  </si>
-  <si>
-    <t>SMK</t>
-  </si>
-  <si>
-    <t>Roni Slamet//</t>
-  </si>
-  <si>
-    <t>2012.12.01.011</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>Ihsanuddin//</t>
-  </si>
-  <si>
-    <t>2012.12.01.012</t>
-  </si>
-  <si>
-    <t>Sukirman//</t>
-  </si>
-  <si>
-    <t>2012.12.01.013</t>
-  </si>
-  <si>
-    <t>Bambang Gunartok//</t>
-  </si>
-  <si>
-    <t>2012.12.01.014</t>
-  </si>
-  <si>
-    <t>Rudi Riswanto//</t>
-  </si>
-  <si>
-    <t>2012.12.01.015</t>
-  </si>
-  <si>
-    <t>Maryono//</t>
-  </si>
-  <si>
-    <t>2012.12.01.016</t>
-  </si>
-  <si>
-    <t>Muryanto//</t>
-  </si>
-  <si>
-    <t>2012.12.01.017</t>
-  </si>
-  <si>
     <t>Heri Susanto//</t>
   </si>
   <si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>Burhanu Sultan Ramadan/Darit/2001-08-09</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
   <si>
     <t>ratnasari/Darit/2001-08-09</t>
@@ -1246,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1262,11 +1265,9 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5"/>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1280,13 +1281,15 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6"/>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -1299,14 +1302,14 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1320,14 +1323,14 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1341,10 +1344,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1360,14 +1363,14 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1381,14 +1384,14 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1402,14 +1405,14 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1423,14 +1426,14 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1444,10 +1447,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1463,14 +1466,14 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1484,14 +1487,14 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1505,14 +1508,14 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1526,14 +1529,14 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1572,7 +1575,9 @@
         <v>49</v>
       </c>
       <c r="D20"/>
-      <c r="E20"/>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
       <c r="F20">
         <v>0</v>
       </c>
@@ -1781,7 +1786,9 @@
         <v>71</v>
       </c>
       <c r="D31"/>
-      <c r="E31"/>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
       <c r="F31">
         <v>0</v>
       </c>
@@ -3954,7 +3961,9 @@
       <c r="D148" t="s">
         <v>260</v>
       </c>
-      <c r="E148"/>
+      <c r="E148" t="s">
+        <v>32</v>
+      </c>
       <c r="F148">
         <v>0</v>
       </c>
@@ -4295,7 +4304,9 @@
       <c r="C168">
         <v>123</v>
       </c>
-      <c r="D168"/>
+      <c r="D168" t="s">
+        <v>280</v>
+      </c>
       <c r="E168"/>
       <c r="F168">
         <v>20</v>
@@ -4309,7 +4320,7 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C169">
         <v>1234</v>

--- a/assets/excel/Report Bezetting.xlsx
+++ b/assets/excel/Report Bezetting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>REPORT BEZETTING</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Direktur Operasional</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>Aktif</t>
   </si>
   <si>
@@ -62,10 +59,7 @@
     <t>2012.12.01.003</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>Iwan Setiyawan/Bantul/2022-06-06</t>
+    <t>Iwan Setiyawan//</t>
   </si>
   <si>
     <t>2012.12.01.004</t>
@@ -95,27 +89,18 @@
     <t>2012.12.01.009</t>
   </si>
   <si>
-    <t>SMP</t>
-  </si>
-  <si>
     <t>Edy Rusmanto//</t>
   </si>
   <si>
     <t>2012.12.01.010</t>
   </si>
   <si>
-    <t>SMK</t>
-  </si>
-  <si>
     <t>Roni Slamet//</t>
   </si>
   <si>
     <t>2012.12.01.011</t>
   </si>
   <si>
-    <t>DIII</t>
-  </si>
-  <si>
     <t>Ihsanuddin//</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t>2012.12.01.017</t>
   </si>
   <si>
-    <t>SMA</t>
-  </si>
-  <si>
     <t>Heri Susanto//</t>
   </si>
   <si>
@@ -797,9 +779,6 @@
     <t>Ihsan Firdaus//</t>
   </si>
   <si>
-    <t>Administrasi Personalia</t>
-  </si>
-  <si>
     <t>Arimbi Himsa L//</t>
   </si>
   <si>
@@ -855,12 +834,6 @@
   </si>
   <si>
     <t>Burhanu Sultan Ramadan/Darit/2001-08-09</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>ratnasari/Darit/2001-08-09</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1169,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,14 +1218,12 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E4"/>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1260,20 +1231,18 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5"/>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E5"/>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1281,20 +1250,18 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6"/>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E6"/>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1302,20 +1269,18 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7"/>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
+      <c r="E7"/>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1323,20 +1288,18 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8"/>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
+      <c r="E8"/>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1344,10 +1307,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1355,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1363,20 +1326,18 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10"/>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
+      <c r="E10"/>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1384,20 +1345,18 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11"/>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
+      <c r="E11"/>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1405,20 +1364,18 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12"/>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
+      <c r="E12"/>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1426,20 +1383,18 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D13"/>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
+      <c r="E13"/>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1447,10 +1402,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1458,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1466,20 +1421,18 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D15"/>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
+      <c r="E15"/>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1487,20 +1440,18 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D16"/>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
+      <c r="E16"/>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1508,20 +1459,18 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D17"/>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
+      <c r="E17"/>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1529,20 +1478,18 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D18"/>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
+      <c r="E18"/>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1550,10 +1497,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -1561,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1569,20 +1516,18 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D20"/>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
+      <c r="E20"/>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1590,10 +1535,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1601,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1609,10 +1554,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -1620,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1628,10 +1573,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1639,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1647,10 +1592,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -1658,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1666,10 +1611,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -1677,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1685,10 +1630,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1696,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1704,10 +1649,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -1715,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1723,10 +1668,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -1734,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1742,10 +1687,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -1753,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1761,10 +1706,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -1772,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1780,20 +1725,18 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D31"/>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
+      <c r="E31"/>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1801,10 +1744,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -1812,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1820,10 +1763,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -1831,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1839,10 +1782,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -1850,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1858,10 +1801,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -1869,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1877,10 +1820,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -1888,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1896,10 +1839,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -1907,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1915,10 +1858,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -1926,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1934,10 +1877,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1945,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1953,10 +1896,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -1964,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1972,10 +1915,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -1983,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1991,10 +1934,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -2002,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2010,10 +1953,10 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -2021,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2029,10 +1972,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -2040,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2048,10 +1991,10 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2059,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2067,10 +2010,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -2078,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2086,10 +2029,10 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2097,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2105,10 +2048,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -2116,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2124,10 +2067,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2135,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2143,10 +2086,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -2154,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2162,10 +2105,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -2173,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2181,10 +2124,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -2192,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2200,10 +2143,10 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2211,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2219,10 +2162,10 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -2230,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2238,10 +2181,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -2249,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2257,10 +2200,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D56"/>
       <c r="E56"/>
@@ -2268,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2276,10 +2219,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -2287,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2295,10 +2238,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -2306,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2314,10 +2257,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
@@ -2325,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2333,10 +2276,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
@@ -2344,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2352,10 +2295,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -2363,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2371,10 +2314,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
@@ -2382,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2390,10 +2333,10 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
@@ -2401,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2409,10 +2352,10 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
@@ -2420,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2428,10 +2371,10 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -2439,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2447,10 +2390,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -2458,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2466,10 +2409,10 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
@@ -2477,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2485,10 +2428,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -2496,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2504,10 +2447,10 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -2515,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2523,10 +2466,10 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -2534,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2542,10 +2485,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2553,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2561,10 +2504,10 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2572,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2580,10 +2523,10 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -2591,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2599,10 +2542,10 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -2610,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2618,10 +2561,10 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -2629,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2637,10 +2580,10 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -2648,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2656,10 +2599,10 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -2667,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2675,10 +2618,10 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -2686,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2694,10 +2637,10 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -2705,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2713,10 +2656,10 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
@@ -2724,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2732,10 +2675,10 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -2743,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2751,10 +2694,10 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -2762,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2770,10 +2713,10 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -2781,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2789,10 +2732,10 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
@@ -2800,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2808,10 +2751,10 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -2819,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2827,10 +2770,10 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
@@ -2838,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2846,10 +2789,10 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -2857,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2865,10 +2808,10 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
@@ -2876,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2884,10 +2827,10 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
@@ -2895,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2903,10 +2846,10 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
@@ -2914,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2922,10 +2865,10 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -2933,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2941,10 +2884,10 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
@@ -2952,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2960,10 +2903,10 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -2971,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2979,10 +2922,10 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -2990,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2998,10 +2941,10 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -3009,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3017,10 +2960,10 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
@@ -3028,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3036,10 +2979,10 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
@@ -3047,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3055,10 +2998,10 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
@@ -3066,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3074,10 +3017,10 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
@@ -3085,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3093,10 +3036,10 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
@@ -3104,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3112,10 +3055,10 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
@@ -3123,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3131,10 +3074,10 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
@@ -3142,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3150,7 +3093,7 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C103">
         <v>1000</v>
@@ -3161,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3169,7 +3112,7 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C104">
         <v>1001</v>
@@ -3180,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3188,7 +3131,7 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C105">
         <v>1002</v>
@@ -3199,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3207,7 +3150,7 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C106">
         <v>1003</v>
@@ -3218,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3226,7 +3169,7 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C107">
         <v>2000</v>
@@ -3237,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3245,7 +3188,7 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C108">
         <v>2001</v>
@@ -3256,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3264,7 +3207,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C109">
         <v>2002</v>
@@ -3275,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3283,7 +3226,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C110">
         <v>2003</v>
@@ -3294,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3302,7 +3245,7 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C111">
         <v>2004</v>
@@ -3313,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3321,7 +3264,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C112">
         <v>2005</v>
@@ -3332,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3340,7 +3283,7 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C113">
         <v>2006</v>
@@ -3351,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3359,7 +3302,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C114">
         <v>2007</v>
@@ -3370,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3378,7 +3321,7 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C115">
         <v>2008</v>
@@ -3389,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3397,7 +3340,7 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C116">
         <v>2009</v>
@@ -3408,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3416,7 +3359,7 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C117">
         <v>2010</v>
@@ -3427,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3435,7 +3378,7 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C118">
         <v>2011</v>
@@ -3446,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3454,7 +3397,7 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C119">
         <v>2012</v>
@@ -3465,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3473,7 +3416,7 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C120">
         <v>2013</v>
@@ -3484,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3492,7 +3435,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C121">
         <v>2014</v>
@@ -3503,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3511,7 +3454,7 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C122">
         <v>3000</v>
@@ -3522,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3530,7 +3473,7 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
@@ -3539,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3547,7 +3490,7 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
@@ -3556,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3564,7 +3507,7 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
@@ -3573,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3581,7 +3524,7 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C126"/>
       <c r="D126"/>
@@ -3590,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3598,7 +3541,7 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C127"/>
       <c r="D127"/>
@@ -3607,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3615,7 +3558,7 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
@@ -3624,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3632,7 +3575,7 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
@@ -3641,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3649,7 +3592,7 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
@@ -3658,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3666,7 +3609,7 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
@@ -3675,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3683,7 +3626,7 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -3692,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3700,7 +3643,7 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
@@ -3709,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3717,7 +3660,7 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
@@ -3726,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3734,7 +3677,7 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
@@ -3743,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3751,7 +3694,7 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
@@ -3760,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3768,7 +3711,7 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
@@ -3777,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3785,7 +3728,7 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
@@ -3794,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3802,7 +3745,7 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
@@ -3811,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3819,7 +3762,7 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C140"/>
       <c r="D140"/>
@@ -3828,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3836,7 +3779,7 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -3845,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3853,7 +3796,7 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C142"/>
       <c r="D142"/>
@@ -3862,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3870,7 +3813,7 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C143"/>
       <c r="D143"/>
@@ -3879,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3887,7 +3830,7 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
@@ -3896,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3904,7 +3847,7 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
@@ -3913,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3921,7 +3864,7 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C146"/>
       <c r="D146"/>
@@ -3930,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3938,7 +3881,7 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C147"/>
       <c r="D147"/>
@@ -3947,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3955,20 +3898,16 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C148"/>
-      <c r="D148" t="s">
-        <v>260</v>
-      </c>
-      <c r="E148" t="s">
-        <v>32</v>
-      </c>
+      <c r="D148"/>
+      <c r="E148"/>
       <c r="F148">
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3976,7 +3915,7 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
@@ -3985,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3993,7 +3932,7 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C150"/>
       <c r="D150"/>
@@ -4002,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4010,7 +3949,7 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
@@ -4019,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4027,7 +3966,7 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
@@ -4036,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4044,7 +3983,7 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
@@ -4053,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4061,7 +4000,7 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
@@ -4070,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4078,7 +4017,7 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C155"/>
       <c r="D155"/>
@@ -4087,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4095,7 +4034,7 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
@@ -4104,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4112,7 +4051,7 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
@@ -4121,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4129,7 +4068,7 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
@@ -4138,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4146,7 +4085,7 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
@@ -4155,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4163,7 +4102,7 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
@@ -4172,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4180,7 +4119,7 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
@@ -4189,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4197,7 +4136,7 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C162"/>
       <c r="D162"/>
@@ -4206,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4214,7 +4153,7 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
@@ -4223,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4231,7 +4170,7 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
@@ -4240,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4248,7 +4187,7 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
@@ -4257,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4265,7 +4204,7 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
@@ -4274,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4282,7 +4221,7 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
@@ -4291,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4299,39 +4238,18 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C168">
-        <v>123</v>
-      </c>
-      <c r="D168" t="s">
-        <v>280</v>
-      </c>
+        <v>9535253</v>
+      </c>
+      <c r="D168"/>
       <c r="E168"/>
       <c r="F168">
         <v>20</v>
       </c>
       <c r="G168" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169">
-        <v>166</v>
-      </c>
-      <c r="B169" t="s">
-        <v>281</v>
-      </c>
-      <c r="C169">
-        <v>1234</v>
-      </c>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Report Bezetting.xlsx
+++ b/assets/excel/Report Bezetting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t>REPORT BEZETTING</t>
   </si>
@@ -834,6 +834,12 @@
   </si>
   <si>
     <t>Burhanu Sultan Ramadan/Darit/2001-08-09</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -4243,8 +4249,12 @@
       <c r="C168">
         <v>9535253</v>
       </c>
-      <c r="D168"/>
-      <c r="E168"/>
+      <c r="D168" t="s">
+        <v>273</v>
+      </c>
+      <c r="E168" t="s">
+        <v>274</v>
+      </c>
       <c r="F168">
         <v>20</v>
       </c>
